--- a/data/pca/factorExposure/factorExposure_2017-11-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02318677377152429</v>
+        <v>-0.01413063388633181</v>
       </c>
       <c r="C2">
-        <v>0.0005776419642783066</v>
+        <v>-0.03796178005132539</v>
       </c>
       <c r="D2">
-        <v>0.01273977233827459</v>
+        <v>0.02846513409542806</v>
       </c>
       <c r="E2">
-        <v>0.01098662891502935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.034297772505055</v>
+      </c>
+      <c r="F2">
+        <v>0.02396576072107628</v>
+      </c>
+      <c r="G2">
+        <v>-0.01691465098310962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01267538968856033</v>
+        <v>-0.05240779699384528</v>
       </c>
       <c r="C3">
-        <v>-0.05399243949888358</v>
+        <v>-0.0745591309351597</v>
       </c>
       <c r="D3">
-        <v>-0.003793542056721708</v>
+        <v>0.0146676021195482</v>
       </c>
       <c r="E3">
-        <v>-0.00477006327989284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1003870510299465</v>
+      </c>
+      <c r="F3">
+        <v>0.04809480572548365</v>
+      </c>
+      <c r="G3">
+        <v>-0.08027356404457593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02238797127928454</v>
+        <v>-0.05445270991705057</v>
       </c>
       <c r="C4">
-        <v>-0.01927794750189466</v>
+        <v>-0.06556638854632679</v>
       </c>
       <c r="D4">
-        <v>0.05851566136350285</v>
+        <v>0.02276867913051904</v>
       </c>
       <c r="E4">
-        <v>-0.008006341174785559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.009946965935260305</v>
+      </c>
+      <c r="F4">
+        <v>0.01448288743267179</v>
+      </c>
+      <c r="G4">
+        <v>-0.04653999517964327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01539664098016706</v>
+        <v>-0.03153968114416361</v>
       </c>
       <c r="C6">
-        <v>-0.02825759428129376</v>
+        <v>-0.05410784849681254</v>
       </c>
       <c r="D6">
-        <v>0.07801025160658835</v>
+        <v>0.01632581208659379</v>
       </c>
       <c r="E6">
-        <v>0.009488515314937378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.009343695101130051</v>
+      </c>
+      <c r="F6">
+        <v>0.01480909946915639</v>
+      </c>
+      <c r="G6">
+        <v>-0.02380100563366491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01042837397360784</v>
+        <v>-0.02037684942851877</v>
       </c>
       <c r="C7">
-        <v>-0.007582431003963917</v>
+        <v>-0.03820427522056273</v>
       </c>
       <c r="D7">
-        <v>0.03952078795411056</v>
+        <v>0.0124390580169784</v>
       </c>
       <c r="E7">
-        <v>-0.06441941283581695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01086483814516437</v>
+      </c>
+      <c r="F7">
+        <v>0.006911627710419595</v>
+      </c>
+      <c r="G7">
+        <v>-0.07492059731460189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0002096810198238199</v>
+        <v>0.002528960117295466</v>
       </c>
       <c r="C8">
-        <v>0.009728951956698925</v>
+        <v>-0.01481869670030693</v>
       </c>
       <c r="D8">
-        <v>0.01369065594154949</v>
+        <v>0.003807921757370495</v>
       </c>
       <c r="E8">
-        <v>-0.003656701935592261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01747791416924748</v>
+      </c>
+      <c r="F8">
+        <v>0.01404452744279466</v>
+      </c>
+      <c r="G8">
+        <v>-0.02521137779782111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01459071368875184</v>
+        <v>-0.02739580634678428</v>
       </c>
       <c r="C9">
-        <v>-0.01664116798715224</v>
+        <v>-0.0436155256313305</v>
       </c>
       <c r="D9">
-        <v>0.03991406240362149</v>
+        <v>0.01581721489055176</v>
       </c>
       <c r="E9">
-        <v>0.0005855609605683815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01259508381048432</v>
+      </c>
+      <c r="F9">
+        <v>0.01810417772944414</v>
+      </c>
+      <c r="G9">
+        <v>-0.03597443653043335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.008145117017787354</v>
+        <v>-0.09117912542102662</v>
       </c>
       <c r="C10">
-        <v>-0.1348791232138996</v>
+        <v>0.1829871258958386</v>
       </c>
       <c r="D10">
-        <v>-0.1327024780286801</v>
+        <v>-0.0184675686714381</v>
       </c>
       <c r="E10">
-        <v>-0.02931909018435868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01754988636957922</v>
+      </c>
+      <c r="F10">
+        <v>-0.0149116813861767</v>
+      </c>
+      <c r="G10">
+        <v>-0.0401498537855601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001112558364607809</v>
+        <v>-0.03495110107061637</v>
       </c>
       <c r="C11">
-        <v>-0.007168137865496824</v>
+        <v>-0.05412946530259609</v>
       </c>
       <c r="D11">
-        <v>0.04130675854351858</v>
+        <v>0.001621589274478599</v>
       </c>
       <c r="E11">
-        <v>0.01480350014509382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.003982080539678169</v>
+      </c>
+      <c r="F11">
+        <v>0.02255129966083951</v>
+      </c>
+      <c r="G11">
+        <v>-0.01840744101923924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005530784239497208</v>
+        <v>-0.0323529630718721</v>
       </c>
       <c r="C12">
-        <v>-0.01680480807537496</v>
+        <v>-0.04589419942816429</v>
       </c>
       <c r="D12">
-        <v>0.04377022445055975</v>
+        <v>0.005678570685035537</v>
       </c>
       <c r="E12">
-        <v>0.008281334757078511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.005499340203532109</v>
+      </c>
+      <c r="F12">
+        <v>0.006735611141703579</v>
+      </c>
+      <c r="G12">
+        <v>-0.02206939921471015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02115040641211927</v>
+        <v>-0.01320051266598355</v>
       </c>
       <c r="C13">
-        <v>-0.01425748444726668</v>
+        <v>-0.03322601928241184</v>
       </c>
       <c r="D13">
-        <v>0.006102221854223082</v>
+        <v>0.02469382405393332</v>
       </c>
       <c r="E13">
-        <v>0.006994331948761608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02835181135227756</v>
+      </c>
+      <c r="F13">
+        <v>0.01156261629406273</v>
+      </c>
+      <c r="G13">
+        <v>-0.03016772972154712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006903255169263582</v>
+        <v>-0.008006072453953822</v>
       </c>
       <c r="C14">
-        <v>-0.01337213818464113</v>
+        <v>-0.02651640838458113</v>
       </c>
       <c r="D14">
-        <v>0.01027811060863485</v>
+        <v>0.008381088510982669</v>
       </c>
       <c r="E14">
-        <v>-0.01230201721596402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005914770168325988</v>
+      </c>
+      <c r="F14">
+        <v>-0.0007335990806699004</v>
+      </c>
+      <c r="G14">
+        <v>-0.03773081142654601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0006226395026948428</v>
+        <v>-0.03157489659924866</v>
       </c>
       <c r="C16">
-        <v>-0.0134182087109221</v>
+        <v>-0.04424857190502229</v>
       </c>
       <c r="D16">
-        <v>0.04596565147711228</v>
+        <v>0.001215154017498678</v>
       </c>
       <c r="E16">
-        <v>0.009623851246946534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.004185513656265258</v>
+      </c>
+      <c r="F16">
+        <v>0.007959220082203487</v>
+      </c>
+      <c r="G16">
+        <v>-0.02200902819271927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01216257495957712</v>
+        <v>-0.02882130098443294</v>
       </c>
       <c r="C19">
-        <v>-0.02012053130674068</v>
+        <v>-0.05443189440783175</v>
       </c>
       <c r="D19">
-        <v>0.02331489103982498</v>
+        <v>0.01575004650742791</v>
       </c>
       <c r="E19">
-        <v>3.004318164285314e-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05065722351489876</v>
+      </c>
+      <c r="F19">
+        <v>0.02913433679293277</v>
+      </c>
+      <c r="G19">
+        <v>-0.04000674778473315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.009790450325010993</v>
+        <v>-0.01137198161246283</v>
       </c>
       <c r="C20">
-        <v>-0.0009606919160024992</v>
+        <v>-0.03510729006038105</v>
       </c>
       <c r="D20">
-        <v>0.006442932545887963</v>
+        <v>0.01320029306034548</v>
       </c>
       <c r="E20">
-        <v>-0.002518958876583132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02410847359507001</v>
+      </c>
+      <c r="F20">
+        <v>0.002148834615166314</v>
+      </c>
+      <c r="G20">
+        <v>-0.03448161367668984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01344274887294748</v>
+        <v>-0.01341868216893539</v>
       </c>
       <c r="C21">
-        <v>-0.03314437011748474</v>
+        <v>-0.03374330702586593</v>
       </c>
       <c r="D21">
-        <v>0.01159806332692026</v>
+        <v>0.01624721168865459</v>
       </c>
       <c r="E21">
-        <v>-0.02033139147195655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03314360964176406</v>
+      </c>
+      <c r="F21">
+        <v>0.009052730126239628</v>
+      </c>
+      <c r="G21">
+        <v>-0.05722561277717832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004673589120383542</v>
+        <v>-0.02611147376942411</v>
       </c>
       <c r="C24">
-        <v>-0.008224009495148654</v>
+        <v>-0.04718882922752502</v>
       </c>
       <c r="D24">
-        <v>0.04348714055909189</v>
+        <v>0.006481165022456691</v>
       </c>
       <c r="E24">
-        <v>0.01092145710430464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.001600164479836344</v>
+      </c>
+      <c r="F24">
+        <v>0.01923039166981754</v>
+      </c>
+      <c r="G24">
+        <v>-0.02057453570623965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0109035444650552</v>
+        <v>-0.04299014733668917</v>
       </c>
       <c r="C25">
-        <v>-0.023992264546332</v>
+        <v>-0.05492730652128586</v>
       </c>
       <c r="D25">
-        <v>0.04048311197320412</v>
+        <v>0.01039880708892048</v>
       </c>
       <c r="E25">
-        <v>0.009507485404336524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.008559111607224107</v>
+      </c>
+      <c r="F25">
+        <v>0.01460990338362114</v>
+      </c>
+      <c r="G25">
+        <v>-0.02583215163050778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0227086700521312</v>
+        <v>-0.009016525916382842</v>
       </c>
       <c r="C26">
-        <v>-0.00675152924731904</v>
+        <v>-0.009153501234643103</v>
       </c>
       <c r="D26">
-        <v>-0.006369344243583457</v>
+        <v>0.02371055670757029</v>
       </c>
       <c r="E26">
-        <v>-0.009086174635115591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.009458197475503687</v>
+      </c>
+      <c r="F26">
+        <v>0.001790546928496246</v>
+      </c>
+      <c r="G26">
+        <v>-0.02819438991944831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.024732555818655</v>
+        <v>-0.1171998194126321</v>
       </c>
       <c r="C28">
-        <v>-0.2001230224645667</v>
+        <v>0.226002110001216</v>
       </c>
       <c r="D28">
-        <v>-0.1944259797360605</v>
+        <v>-0.009691744132207232</v>
       </c>
       <c r="E28">
-        <v>-0.04409243186840478</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008521124689194666</v>
+      </c>
+      <c r="F28">
+        <v>-0.006351909984089286</v>
+      </c>
+      <c r="G28">
+        <v>-0.05682283470850643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007127435654717381</v>
+        <v>-0.01333752737407377</v>
       </c>
       <c r="C29">
-        <v>-0.01839765316046456</v>
+        <v>-0.02061380757002921</v>
       </c>
       <c r="D29">
-        <v>0.008291498809327443</v>
+        <v>0.007044444945828435</v>
       </c>
       <c r="E29">
-        <v>-0.00692028764032416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.005901050552673677</v>
+      </c>
+      <c r="F29">
+        <v>-0.01037529995766504</v>
+      </c>
+      <c r="G29">
+        <v>-0.02849693384608987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02409989552066584</v>
+        <v>-0.04025072046287647</v>
       </c>
       <c r="C30">
-        <v>-0.01447916806081985</v>
+        <v>-0.07110447786196199</v>
       </c>
       <c r="D30">
-        <v>0.05738046063422609</v>
+        <v>0.02725977653627328</v>
       </c>
       <c r="E30">
-        <v>0.06804584681369132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02960174056217634</v>
+      </c>
+      <c r="F30">
+        <v>0.04120959774633497</v>
+      </c>
+      <c r="G30">
+        <v>-0.00211795732928206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.006569810248175539</v>
+        <v>-0.04448053122076735</v>
       </c>
       <c r="C31">
-        <v>-0.04750208697634591</v>
+        <v>-0.03177449763112186</v>
       </c>
       <c r="D31">
-        <v>0.03352448314961263</v>
+        <v>0.002948631535315079</v>
       </c>
       <c r="E31">
-        <v>-0.001841022423325216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01095740488592181</v>
+      </c>
+      <c r="F31">
+        <v>-0.03805578295726927</v>
+      </c>
+      <c r="G31">
+        <v>-0.02683806310253864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007683794683571579</v>
+        <v>-0.006168040639332988</v>
       </c>
       <c r="C32">
-        <v>-0.009768587935305179</v>
+        <v>-0.03250444796727013</v>
       </c>
       <c r="D32">
-        <v>0.00636204722749454</v>
+        <v>-0.004766567290662068</v>
       </c>
       <c r="E32">
-        <v>-0.02419198943262622</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.02111094659659401</v>
+      </c>
+      <c r="F32">
+        <v>0.06872096928850728</v>
+      </c>
+      <c r="G32">
+        <v>-0.04905747285885642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01196351198305488</v>
+        <v>-0.02856191084401325</v>
       </c>
       <c r="C33">
-        <v>-0.02440085986250778</v>
+        <v>-0.04986277136347182</v>
       </c>
       <c r="D33">
-        <v>0.01551171857918953</v>
+        <v>0.01416870668586762</v>
       </c>
       <c r="E33">
-        <v>0.02726493329186248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02607731938856194</v>
+      </c>
+      <c r="F33">
+        <v>0.02120661516150481</v>
+      </c>
+      <c r="G33">
+        <v>-0.02719880099300243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.005149033672794605</v>
+        <v>-0.04481902306961614</v>
       </c>
       <c r="C34">
-        <v>-0.02037848081964235</v>
+        <v>-0.05607942340075849</v>
       </c>
       <c r="D34">
-        <v>0.0467246871497982</v>
+        <v>-0.005611993026873829</v>
       </c>
       <c r="E34">
-        <v>0.001208200947366396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.007326921639455005</v>
+      </c>
+      <c r="F34">
+        <v>0.0234929850168289</v>
+      </c>
+      <c r="G34">
+        <v>-0.03214959215549608</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01155437470228354</v>
+        <v>-0.01127336380115485</v>
       </c>
       <c r="C36">
-        <v>-0.01806708905616087</v>
+        <v>-0.007379866548101242</v>
       </c>
       <c r="D36">
-        <v>-0.002041574712036118</v>
+        <v>0.0112790097045556</v>
       </c>
       <c r="E36">
-        <v>-0.002150754848053022</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001977317612787439</v>
+      </c>
+      <c r="F36">
+        <v>-0.002150409330818394</v>
+      </c>
+      <c r="G36">
+        <v>-0.02194941635523903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.006577659897673215</v>
+        <v>-0.03343819025516132</v>
       </c>
       <c r="C38">
-        <v>-0.02647643775198884</v>
+        <v>-0.02621169292621456</v>
       </c>
       <c r="D38">
-        <v>0.01433185287366962</v>
+        <v>-0.008084393628160874</v>
       </c>
       <c r="E38">
-        <v>0.001180138336368102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004275861058718812</v>
+      </c>
+      <c r="F38">
+        <v>-0.0004203997159090331</v>
+      </c>
+      <c r="G38">
+        <v>-0.02978871847601699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005850386430240151</v>
+        <v>-0.03167163766399791</v>
       </c>
       <c r="C39">
-        <v>0.01225206270630047</v>
+        <v>-0.08241643788681088</v>
       </c>
       <c r="D39">
-        <v>0.09375502923079763</v>
+        <v>0.01184902052555301</v>
       </c>
       <c r="E39">
-        <v>0.02103663882914507</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02154773774354949</v>
+      </c>
+      <c r="F39">
+        <v>0.03731829154231658</v>
+      </c>
+      <c r="G39">
+        <v>-0.02273556517236115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01074475303299993</v>
+        <v>-0.02070288020725088</v>
       </c>
       <c r="C40">
-        <v>-0.01697644610995505</v>
+        <v>-0.03011557825929921</v>
       </c>
       <c r="D40">
-        <v>0.0365456137388337</v>
+        <v>0.01309670034699126</v>
       </c>
       <c r="E40">
-        <v>0.0168864292179396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02328503758553303</v>
+      </c>
+      <c r="F40">
+        <v>0.01454994011617271</v>
+      </c>
+      <c r="G40">
+        <v>-0.02315615525671887</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.004901286136510285</v>
+        <v>-0.01171714665388517</v>
       </c>
       <c r="C41">
-        <v>-0.01888287495857378</v>
+        <v>0.001593275687218759</v>
       </c>
       <c r="D41">
-        <v>-0.01167161300183229</v>
+        <v>0.003527192938928036</v>
       </c>
       <c r="E41">
-        <v>-0.004242177183125855</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003843747413138566</v>
+      </c>
+      <c r="F41">
+        <v>0.001578711328568586</v>
+      </c>
+      <c r="G41">
+        <v>-0.01426479424794523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09481616692988588</v>
+        <v>-0.02469252398483758</v>
       </c>
       <c r="C42">
-        <v>-0.04683951521146567</v>
+        <v>-0.05170171094366571</v>
       </c>
       <c r="D42">
-        <v>0.2374397118761754</v>
+        <v>0.1002794780564143</v>
       </c>
       <c r="E42">
-        <v>0.295090802137546</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.04304318392850343</v>
+      </c>
+      <c r="F42">
+        <v>-0.090631218874499</v>
+      </c>
+      <c r="G42">
+        <v>0.1806855147633626</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.005847136382424272</v>
+        <v>-0.0280350050431743</v>
       </c>
       <c r="C43">
-        <v>-0.0228940302419194</v>
+        <v>-0.008104752649039126</v>
       </c>
       <c r="D43">
-        <v>-0.01474862413076528</v>
+        <v>0.003774439255123102</v>
       </c>
       <c r="E43">
-        <v>-8.965771980305336e-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.004276174591449499</v>
+      </c>
+      <c r="F43">
+        <v>-0.0005101163381000278</v>
+      </c>
+      <c r="G43">
+        <v>-0.01986452122588676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002947704901002066</v>
+        <v>-0.0166891827787208</v>
       </c>
       <c r="C44">
-        <v>0.001996316044691237</v>
+        <v>-0.04716938188638335</v>
       </c>
       <c r="D44">
-        <v>0.01732920785673117</v>
+        <v>0.006378012319562452</v>
       </c>
       <c r="E44">
-        <v>-0.002439686583509497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01935701259598422</v>
+      </c>
+      <c r="F44">
+        <v>0.0194132868267405</v>
+      </c>
+      <c r="G44">
+        <v>-0.03686290878221954</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01026362150109811</v>
+        <v>-0.004153173395067046</v>
       </c>
       <c r="C46">
-        <v>-0.01568576514979983</v>
+        <v>-0.01694167726069239</v>
       </c>
       <c r="D46">
-        <v>0.01123582964977356</v>
+        <v>0.01158898281903729</v>
       </c>
       <c r="E46">
-        <v>0.002056744228904615</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001438856485551364</v>
+      </c>
+      <c r="F46">
+        <v>-0.01373887609423067</v>
+      </c>
+      <c r="G46">
+        <v>-0.02497043200065454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0005536492468264101</v>
+        <v>-0.07435218620103033</v>
       </c>
       <c r="C47">
-        <v>-0.06457817624437269</v>
+        <v>-0.06424244317929653</v>
       </c>
       <c r="D47">
-        <v>0.04091895652670747</v>
+        <v>-0.005453951545105847</v>
       </c>
       <c r="E47">
-        <v>0.009067409352523459</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01778758552972624</v>
+      </c>
+      <c r="F47">
+        <v>-0.06162888544606469</v>
+      </c>
+      <c r="G47">
+        <v>-0.02490098570368924</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002357248651798734</v>
+        <v>-0.01960623713070321</v>
       </c>
       <c r="C48">
-        <v>-0.02466962556424087</v>
+        <v>-0.01080264428081543</v>
       </c>
       <c r="D48">
-        <v>0.005757146440695561</v>
+        <v>0.000858368879210513</v>
       </c>
       <c r="E48">
-        <v>0.0007990963146074215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003142865751962787</v>
+      </c>
+      <c r="F48">
+        <v>-0.01389013578837289</v>
+      </c>
+      <c r="G48">
+        <v>-0.02565684369387288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.001798968786044623</v>
+        <v>-0.0790818423087627</v>
       </c>
       <c r="C50">
-        <v>-0.05502441493418428</v>
+        <v>-0.06637269846071892</v>
       </c>
       <c r="D50">
-        <v>0.05082192573581456</v>
+        <v>-0.004291535436498999</v>
       </c>
       <c r="E50">
-        <v>-0.01638157944726642</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01895025363059509</v>
+      </c>
+      <c r="F50">
+        <v>-0.05421076245073296</v>
+      </c>
+      <c r="G50">
+        <v>-0.04462951240371823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006718172931816066</v>
+        <v>-0.01116090603998307</v>
       </c>
       <c r="C51">
-        <v>-0.01567861016617325</v>
+        <v>-0.02747709673801348</v>
       </c>
       <c r="D51">
-        <v>-0.01718372018833953</v>
+        <v>0.008943190080291206</v>
       </c>
       <c r="E51">
-        <v>-0.01343776831782691</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01100366182972894</v>
+      </c>
+      <c r="F51">
+        <v>0.02815376183999826</v>
+      </c>
+      <c r="G51">
+        <v>-0.04760762725785964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.003398603355881076</v>
+        <v>-0.09470208661528633</v>
       </c>
       <c r="C53">
-        <v>-0.08941228796607473</v>
+        <v>-0.07954235257435091</v>
       </c>
       <c r="D53">
-        <v>0.09174467168764913</v>
+        <v>-0.006024466982828638</v>
       </c>
       <c r="E53">
-        <v>0.0110857117033548</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04331102308135975</v>
+      </c>
+      <c r="F53">
+        <v>-0.0631141065632774</v>
+      </c>
+      <c r="G53">
+        <v>-0.02352226682292182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001864524787469783</v>
+        <v>-0.02957869503855752</v>
       </c>
       <c r="C54">
-        <v>-0.03552292251289974</v>
+        <v>-0.006541691442654686</v>
       </c>
       <c r="D54">
-        <v>-0.0146651593735464</v>
+        <v>-0.003787230557411442</v>
       </c>
       <c r="E54">
-        <v>-0.01535176161539983</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.003032880774203696</v>
+      </c>
+      <c r="F54">
+        <v>-0.004756409654157536</v>
+      </c>
+      <c r="G54">
+        <v>-0.03267974924024186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.001044386637746261</v>
+        <v>-0.07283500998183129</v>
       </c>
       <c r="C55">
-        <v>-0.06298300638901577</v>
+        <v>-0.0732605912172124</v>
       </c>
       <c r="D55">
-        <v>0.08360275871171055</v>
+        <v>-0.004958060365277434</v>
       </c>
       <c r="E55">
-        <v>0.02046910746599552</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03310002862359762</v>
+      </c>
+      <c r="F55">
+        <v>-0.05907549265689056</v>
+      </c>
+      <c r="G55">
+        <v>-0.009859930568240706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0007966040281428412</v>
+        <v>-0.1454554874743028</v>
       </c>
       <c r="C56">
-        <v>-0.116477315506804</v>
+        <v>-0.1027682605265109</v>
       </c>
       <c r="D56">
-        <v>0.1247843670314187</v>
+        <v>-0.01425002299729004</v>
       </c>
       <c r="E56">
-        <v>0.02766594761626135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04300787154017064</v>
+      </c>
+      <c r="F56">
+        <v>-0.1012672102587601</v>
+      </c>
+      <c r="G56">
+        <v>-0.001375554208306939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02267985656953809</v>
+        <v>-0.01233527338546917</v>
       </c>
       <c r="C57">
-        <v>-0.01559720315464394</v>
+        <v>-0.01151912261825646</v>
       </c>
       <c r="D57">
-        <v>0.03969964239621206</v>
+        <v>0.02369375028751147</v>
       </c>
       <c r="E57">
-        <v>0.01051700001051279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.03022786053735855</v>
+      </c>
+      <c r="F57">
+        <v>0.01228441196378508</v>
+      </c>
+      <c r="G57">
+        <v>-0.0213046795934114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.007086989700388689</v>
+        <v>-0.06548357593551875</v>
       </c>
       <c r="C58">
-        <v>-0.04796431682898937</v>
+        <v>-0.05829214214767411</v>
       </c>
       <c r="D58">
-        <v>0.05928295588523405</v>
+        <v>0.02067347055645799</v>
       </c>
       <c r="E58">
-        <v>0.1513879016513233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9243013732872946</v>
+      </c>
+      <c r="F58">
+        <v>-0.2977692052658826</v>
+      </c>
+      <c r="G58">
+        <v>-0.03197951910399179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02184381089225229</v>
+        <v>-0.1529619724934473</v>
       </c>
       <c r="C59">
-        <v>-0.2155136934492575</v>
+        <v>0.2111726177513003</v>
       </c>
       <c r="D59">
-        <v>-0.2003110690025454</v>
+        <v>-0.01602030077736958</v>
       </c>
       <c r="E59">
-        <v>-0.01908014901500589</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01539050312801284</v>
+      </c>
+      <c r="F59">
+        <v>0.009719586863422986</v>
+      </c>
+      <c r="G59">
+        <v>-0.02212582333581141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.02796308505480078</v>
+        <v>-0.2901115874067478</v>
       </c>
       <c r="C60">
-        <v>-0.1642969321346925</v>
+        <v>-0.09147002208432872</v>
       </c>
       <c r="D60">
-        <v>0.06854250112309844</v>
+        <v>0.00847115321546138</v>
       </c>
       <c r="E60">
-        <v>0.0588617700822334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.04088210836838598</v>
+      </c>
+      <c r="F60">
+        <v>0.3825216252347562</v>
+      </c>
+      <c r="G60">
+        <v>0.09200047404566075</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002914194929917547</v>
+        <v>-0.03291069775708887</v>
       </c>
       <c r="C61">
-        <v>-0.01141543016273618</v>
+        <v>-0.06393213887806298</v>
       </c>
       <c r="D61">
-        <v>0.06412164675750863</v>
+        <v>0.005180107542712083</v>
       </c>
       <c r="E61">
-        <v>0.01456704298050083</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01232381177600977</v>
+      </c>
+      <c r="F61">
+        <v>0.0207699834743435</v>
+      </c>
+      <c r="G61">
+        <v>-0.02223545154276777</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007573737482158819</v>
+        <v>-0.01461768385790829</v>
       </c>
       <c r="C63">
-        <v>-0.01263626084102144</v>
+        <v>-0.02723184455169236</v>
       </c>
       <c r="D63">
-        <v>0.01228294394529751</v>
+        <v>0.008021538224899974</v>
       </c>
       <c r="E63">
-        <v>-0.003419504889235408</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.007850734786158243</v>
+      </c>
+      <c r="F63">
+        <v>-0.01287708653300786</v>
+      </c>
+      <c r="G63">
+        <v>-0.03138880497525701</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.006249031226647601</v>
+        <v>-0.04816842236037224</v>
       </c>
       <c r="C64">
-        <v>-0.0317386896528072</v>
+        <v>-0.0372290873428888</v>
       </c>
       <c r="D64">
-        <v>0.06080319723587198</v>
+        <v>0.004654893846597674</v>
       </c>
       <c r="E64">
-        <v>0.01973513147849529</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006914277047914658</v>
+      </c>
+      <c r="F64">
+        <v>0.00718607641038621</v>
+      </c>
+      <c r="G64">
+        <v>-0.01913002158257765</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01786224789943489</v>
+        <v>-0.08147884951048533</v>
       </c>
       <c r="C65">
-        <v>-0.03597146123445535</v>
+        <v>-0.06739337334862897</v>
       </c>
       <c r="D65">
-        <v>0.09065675691229523</v>
+        <v>0.01526051240833811</v>
       </c>
       <c r="E65">
-        <v>0.01463319525275545</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01076862769719069</v>
+      </c>
+      <c r="F65">
+        <v>0.0388708995710184</v>
+      </c>
+      <c r="G65">
+        <v>-0.009492972134335372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005506155736194233</v>
+        <v>-0.05294165981744556</v>
       </c>
       <c r="C66">
-        <v>0.000352497532789885</v>
+        <v>-0.1157712726782259</v>
       </c>
       <c r="D66">
-        <v>0.1137880273362843</v>
+        <v>0.01124350355663727</v>
       </c>
       <c r="E66">
-        <v>0.04117898990378694</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02335681259140109</v>
+      </c>
+      <c r="F66">
+        <v>0.04509845663762545</v>
+      </c>
+      <c r="G66">
+        <v>-0.01256820154122134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001793554516942452</v>
+        <v>-0.05689306520258378</v>
       </c>
       <c r="C67">
-        <v>-0.04483653423875235</v>
+        <v>-0.03054591395690393</v>
       </c>
       <c r="D67">
-        <v>0.013839246039559</v>
+        <v>-0.0065732548871241</v>
       </c>
       <c r="E67">
-        <v>0.003462142552959664</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.002267561858745912</v>
+      </c>
+      <c r="F67">
+        <v>-0.001443893663525512</v>
+      </c>
+      <c r="G67">
+        <v>-0.02858664253765877</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.03838309141932135</v>
+        <v>-0.1387319770805158</v>
       </c>
       <c r="C68">
-        <v>-0.1797780895124612</v>
+        <v>0.2707890647025299</v>
       </c>
       <c r="D68">
-        <v>-0.1854272457113511</v>
+        <v>0.001627576937229516</v>
       </c>
       <c r="E68">
-        <v>-0.01994546034908643</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01815286847661933</v>
+      </c>
+      <c r="F68">
+        <v>-0.0177342698930903</v>
+      </c>
+      <c r="G68">
+        <v>-0.02182699867317124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003353349551813596</v>
+        <v>-0.07869294002178853</v>
       </c>
       <c r="C69">
-        <v>-0.05076602786215185</v>
+        <v>-0.06561717719914617</v>
       </c>
       <c r="D69">
-        <v>0.04762047803932123</v>
+        <v>-0.00950964890858807</v>
       </c>
       <c r="E69">
-        <v>0.005836906116193727</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.03380558684667972</v>
+      </c>
+      <c r="F69">
+        <v>-0.04146860959165522</v>
+      </c>
+      <c r="G69">
+        <v>-0.02667330028769299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.02702271936151776</v>
+        <v>-0.1322064253521722</v>
       </c>
       <c r="C71">
-        <v>-0.1636802250416943</v>
+        <v>0.2268367251491543</v>
       </c>
       <c r="D71">
-        <v>-0.1623055052991999</v>
+        <v>-0.007026176075750994</v>
       </c>
       <c r="E71">
-        <v>-0.02785232912025581</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02552442660980784</v>
+      </c>
+      <c r="F71">
+        <v>-0.01965783856596161</v>
+      </c>
+      <c r="G71">
+        <v>-0.0342241272020298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002428604603195549</v>
+        <v>-0.0836466829442923</v>
       </c>
       <c r="C72">
-        <v>-0.06920474844532054</v>
+        <v>-0.07764538095016198</v>
       </c>
       <c r="D72">
-        <v>0.1379901130260618</v>
+        <v>-0.009058606841363391</v>
       </c>
       <c r="E72">
-        <v>0.05170906369162599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.008618177902455768</v>
+      </c>
+      <c r="F72">
+        <v>0.04155798281426353</v>
+      </c>
+      <c r="G72">
+        <v>0.0008213482343901</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04144461517305589</v>
+        <v>-0.3977955702407998</v>
       </c>
       <c r="C73">
-        <v>-0.2008459757947306</v>
+        <v>-0.1064234373002302</v>
       </c>
       <c r="D73">
-        <v>0.1254060009259781</v>
+        <v>0.01332062023318336</v>
       </c>
       <c r="E73">
-        <v>0.1333201808960122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.106612003475143</v>
+      </c>
+      <c r="F73">
+        <v>0.535524230352606</v>
+      </c>
+      <c r="G73">
+        <v>0.1532357671812017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0007296217848094716</v>
+        <v>-0.1166684560240483</v>
       </c>
       <c r="C74">
-        <v>-0.1045183250444427</v>
+        <v>-0.1185320454341427</v>
       </c>
       <c r="D74">
-        <v>0.1213493950648132</v>
+        <v>-0.01066277720110491</v>
       </c>
       <c r="E74">
-        <v>0.03458101471883993</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03878729494748506</v>
+      </c>
+      <c r="F74">
+        <v>-0.06892096022251067</v>
+      </c>
+      <c r="G74">
+        <v>-0.02398654125679651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-3.65732705237504e-05</v>
+        <v>-0.2610319734277182</v>
       </c>
       <c r="C75">
-        <v>-0.237753616251333</v>
+        <v>-0.1487676944762152</v>
       </c>
       <c r="D75">
-        <v>0.2100412718196942</v>
+        <v>-0.03243441472543653</v>
       </c>
       <c r="E75">
-        <v>0.06728646511585469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08365811376878017</v>
+      </c>
+      <c r="F75">
+        <v>-0.2139072144091027</v>
+      </c>
+      <c r="G75">
+        <v>0.03230992230367195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.005014278773847232</v>
+        <v>-0.1362690548739637</v>
       </c>
       <c r="C76">
-        <v>-0.1852545265729106</v>
+        <v>-0.1234989999970203</v>
       </c>
       <c r="D76">
-        <v>0.1961692709626651</v>
+        <v>-0.0223438377981656</v>
       </c>
       <c r="E76">
-        <v>0.03194922582020077</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.07595048000391193</v>
+      </c>
+      <c r="F76">
+        <v>-0.1292133239618997</v>
+      </c>
+      <c r="G76">
+        <v>-0.0135150843674572</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01247849015087098</v>
+        <v>-0.06191162789985546</v>
       </c>
       <c r="C77">
-        <v>-0.01921106174659297</v>
+        <v>-0.06080929050323724</v>
       </c>
       <c r="D77">
-        <v>0.0584770592185535</v>
+        <v>0.0124617168110769</v>
       </c>
       <c r="E77">
-        <v>0.01338839446185876</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04754158609651272</v>
+      </c>
+      <c r="F77">
+        <v>0.009766497737525283</v>
+      </c>
+      <c r="G77">
+        <v>-0.053028845516986</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.00509304616999182</v>
+        <v>-0.04094844720588425</v>
       </c>
       <c r="C78">
-        <v>-0.02158734317971035</v>
+        <v>-0.05149456764485792</v>
       </c>
       <c r="D78">
-        <v>0.06565108835566297</v>
+        <v>0.005611701227231336</v>
       </c>
       <c r="E78">
-        <v>0.01586440260255023</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02437996868319586</v>
+      </c>
+      <c r="F78">
+        <v>0.03453194710351395</v>
+      </c>
+      <c r="G78">
+        <v>-0.03195681243323364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01506895963968374</v>
+        <v>-0.06157586544421114</v>
       </c>
       <c r="C80">
-        <v>-0.1656773947842234</v>
+        <v>-0.06857226592162026</v>
       </c>
       <c r="D80">
-        <v>0.2922264743831179</v>
+        <v>0.01211785033020787</v>
       </c>
       <c r="E80">
-        <v>-0.8899775047983076</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04770945551232358</v>
+      </c>
+      <c r="F80">
+        <v>0.07414130575297299</v>
+      </c>
+      <c r="G80">
+        <v>-0.91562578095005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0009010142108649629</v>
+        <v>-0.1441447220389046</v>
       </c>
       <c r="C81">
-        <v>-0.1538716028187749</v>
+        <v>-0.09449908105369781</v>
       </c>
       <c r="D81">
-        <v>0.140868224869776</v>
+        <v>-0.01642651826789774</v>
       </c>
       <c r="E81">
-        <v>0.03364630583872499</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05027517765029228</v>
+      </c>
+      <c r="F81">
+        <v>-0.132500362887021</v>
+      </c>
+      <c r="G81">
+        <v>-0.01736172196892106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05234648511684369</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03598318373736475</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.003032852418727277</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01889206518730171</v>
+      </c>
+      <c r="F82">
+        <v>-0.004458123609326379</v>
+      </c>
+      <c r="G82">
+        <v>0.007215959484317689</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.00647325699021477</v>
+        <v>-0.0283617130254363</v>
       </c>
       <c r="C83">
-        <v>-0.02871333565395631</v>
+        <v>-0.0210760638674815</v>
       </c>
       <c r="D83">
-        <v>0.02028503953079435</v>
+        <v>0.005176248931574153</v>
       </c>
       <c r="E83">
-        <v>0.009549535312444089</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02740187026868416</v>
+      </c>
+      <c r="F83">
+        <v>0.01491175636601501</v>
+      </c>
+      <c r="G83">
+        <v>-0.02171095624002655</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.008694246236634904</v>
+        <v>-0.2381313740762477</v>
       </c>
       <c r="C85">
-        <v>-0.1918175599798128</v>
+        <v>-0.1520396844047928</v>
       </c>
       <c r="D85">
-        <v>0.2207473591700317</v>
+        <v>-0.02130026833284376</v>
       </c>
       <c r="E85">
-        <v>0.07870646261642777</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1300705281450235</v>
+      </c>
+      <c r="F85">
+        <v>-0.1921427977045156</v>
+      </c>
+      <c r="G85">
+        <v>0.058802854371702</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.00534949540644676</v>
+        <v>-0.01039451666063027</v>
       </c>
       <c r="C86">
-        <v>-0.009220491820483401</v>
+        <v>-0.02113517134257896</v>
       </c>
       <c r="D86">
-        <v>0.005803681963782292</v>
+        <v>0.009670051266510509</v>
       </c>
       <c r="E86">
-        <v>0.02026959110635607</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03825401659787387</v>
+      </c>
+      <c r="F86">
+        <v>0.01231371333583382</v>
+      </c>
+      <c r="G86">
+        <v>-0.04711139441342126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.006066264988979314</v>
+        <v>-0.01326276643317935</v>
       </c>
       <c r="C87">
-        <v>-0.004785207622402593</v>
+        <v>-0.0275484924584175</v>
       </c>
       <c r="D87">
-        <v>0.02773496096194651</v>
+        <v>0.01175307674726669</v>
       </c>
       <c r="E87">
-        <v>0.00552781106813943</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08460334660920295</v>
+      </c>
+      <c r="F87">
+        <v>0.04673355493654121</v>
+      </c>
+      <c r="G87">
+        <v>-0.04389973539891096</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02557712542307704</v>
+        <v>-0.08756200935403076</v>
       </c>
       <c r="C88">
-        <v>-0.04321194798862875</v>
+        <v>-0.06126448711859832</v>
       </c>
       <c r="D88">
-        <v>0.01046147589864612</v>
+        <v>0.02125929702266851</v>
       </c>
       <c r="E88">
-        <v>0.003770774807506561</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01666299310506067</v>
+      </c>
+      <c r="F88">
+        <v>-0.01444502262347536</v>
+      </c>
+      <c r="G88">
+        <v>-0.02664987206213252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.05131354011054761</v>
+        <v>-0.223061351300134</v>
       </c>
       <c r="C89">
-        <v>-0.3116520586151452</v>
+        <v>0.3658009492816822</v>
       </c>
       <c r="D89">
-        <v>-0.2973894954306974</v>
+        <v>-0.008021340952631515</v>
       </c>
       <c r="E89">
-        <v>-0.02016597744806531</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01868453698974138</v>
+      </c>
+      <c r="F89">
+        <v>-0.03386786216615265</v>
+      </c>
+      <c r="G89">
+        <v>-0.0328768771707149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.03823469920152006</v>
+        <v>-0.1918436501434411</v>
       </c>
       <c r="C90">
-        <v>-0.2276367324956876</v>
+        <v>0.3347737497006625</v>
       </c>
       <c r="D90">
-        <v>-0.2662347338900297</v>
+        <v>-0.01181727433054132</v>
       </c>
       <c r="E90">
-        <v>-0.01090880428558941</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.006816678653529366</v>
+      </c>
+      <c r="F90">
+        <v>-0.04603278569668671</v>
+      </c>
+      <c r="G90">
+        <v>0.004799397224212403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0006069969641158855</v>
+        <v>-0.2074966976891071</v>
       </c>
       <c r="C91">
-        <v>-0.209075256154159</v>
+        <v>-0.1386086629674061</v>
       </c>
       <c r="D91">
-        <v>0.2084400765001606</v>
+        <v>-0.02525932299037902</v>
       </c>
       <c r="E91">
-        <v>0.06022271041460196</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.09619362708695638</v>
+      </c>
+      <c r="F91">
+        <v>-0.182843937322468</v>
+      </c>
+      <c r="G91">
+        <v>-0.001753106972592324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.005216264382598463</v>
+        <v>-0.2106238402233413</v>
       </c>
       <c r="C92">
-        <v>-0.3504103788803161</v>
+        <v>0.2665800142984845</v>
       </c>
       <c r="D92">
-        <v>-0.1804850716977681</v>
+        <v>-0.05353064262687104</v>
       </c>
       <c r="E92">
-        <v>-0.003549652727786411</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01171062061582793</v>
+      </c>
+      <c r="F92">
+        <v>-0.1215190067526642</v>
+      </c>
+      <c r="G92">
+        <v>-0.0700306416296356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.03663099877731114</v>
+        <v>-0.2184289105525624</v>
       </c>
       <c r="C93">
-        <v>-0.2780112543830895</v>
+        <v>0.3313224293516779</v>
       </c>
       <c r="D93">
-        <v>-0.274880916933109</v>
+        <v>-0.01857301933089467</v>
       </c>
       <c r="E93">
-        <v>0.009423366520700648</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.002923770868340676</v>
+      </c>
+      <c r="F93">
+        <v>-0.02977206709816936</v>
+      </c>
+      <c r="G93">
+        <v>0.003273845602002428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.01990982187027783</v>
+        <v>-0.2811165830465783</v>
       </c>
       <c r="C94">
-        <v>-0.2506792304030989</v>
+        <v>-0.164276886710989</v>
       </c>
       <c r="D94">
-        <v>0.2013870837144796</v>
+        <v>-0.01500319997012167</v>
       </c>
       <c r="E94">
-        <v>0.1115170122204979</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1410818765269312</v>
+      </c>
+      <c r="F94">
+        <v>-0.3851399425665826</v>
+      </c>
+      <c r="G94">
+        <v>0.1133408272935923</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.00669700979755123</v>
+        <v>-0.08197384693898548</v>
       </c>
       <c r="C95">
-        <v>-0.04638462606037145</v>
+        <v>-0.07637548540324797</v>
       </c>
       <c r="D95">
-        <v>0.05511523692681991</v>
+        <v>-0.007102392668347515</v>
       </c>
       <c r="E95">
-        <v>0.1120993696249141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.09607648263929873</v>
+      </c>
+      <c r="F95">
+        <v>0.1516363170814472</v>
+      </c>
+      <c r="G95">
+        <v>0.04021478981707904</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.003994185685960281</v>
+        <v>-0.207794050421078</v>
       </c>
       <c r="C98">
-        <v>-0.1654687637129579</v>
+        <v>-0.04958063245009419</v>
       </c>
       <c r="D98">
-        <v>0.08574335272631542</v>
+        <v>-0.0161485535718778</v>
       </c>
       <c r="E98">
-        <v>0.07933246173829687</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.08754157297059176</v>
+      </c>
+      <c r="F98">
+        <v>0.241541941472995</v>
+      </c>
+      <c r="G98">
+        <v>0.04386506552416936</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006969317980939575</v>
+        <v>-0.0131725379687865</v>
       </c>
       <c r="C101">
-        <v>-0.01911768185765644</v>
+        <v>-0.02071082930959006</v>
       </c>
       <c r="D101">
-        <v>0.008750787165293115</v>
+        <v>0.006830701653895946</v>
       </c>
       <c r="E101">
-        <v>-0.006958676555875915</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.006553361442094013</v>
+      </c>
+      <c r="F101">
+        <v>-0.01220284092528641</v>
+      </c>
+      <c r="G101">
+        <v>-0.02859419036938864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0135854616951211</v>
+        <v>-0.1245574274840366</v>
       </c>
       <c r="C102">
-        <v>-0.1217771074156873</v>
+        <v>-0.08261189243874065</v>
       </c>
       <c r="D102">
-        <v>0.1058506354029281</v>
+        <v>-0.0002819933008815544</v>
       </c>
       <c r="E102">
-        <v>0.03263411747556102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04133348024971811</v>
+      </c>
+      <c r="F102">
+        <v>-0.0592779038274908</v>
+      </c>
+      <c r="G102">
+        <v>0.005171003073553415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001992540646595803</v>
+        <v>-0.004018975346805015</v>
       </c>
       <c r="C103">
-        <v>-0.0166990536488773</v>
+        <v>-0.00528368629141648</v>
       </c>
       <c r="D103">
-        <v>0.0260943273296702</v>
+        <v>0.000680573568137133</v>
       </c>
       <c r="E103">
-        <v>-0.01024373600233271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.000223099439452391</v>
+      </c>
+      <c r="F103">
+        <v>-0.007629729392938326</v>
+      </c>
+      <c r="G103">
+        <v>-0.01857793776436664</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9858210353413188</v>
+        <v>-0.03879339271614565</v>
       </c>
       <c r="C104">
-        <v>0.09645316388550761</v>
+        <v>0.04291854834269192</v>
       </c>
       <c r="D104">
-        <v>0.004320362390818207</v>
+        <v>0.9862466048477372</v>
       </c>
       <c r="E104">
-        <v>-0.02429834317705174</v>
+        <v>-0.04794469286714957</v>
+      </c>
+      <c r="F104">
+        <v>-0.03710720946764177</v>
+      </c>
+      <c r="G104">
+        <v>0.003112794600398146</v>
       </c>
     </row>
   </sheetData>
